--- a/biology/Écologie/Paléoécologie/Paléoécologie.xlsx
+++ b/biology/Écologie/Paléoécologie/Paléoécologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pal%C3%A9o%C3%A9cologie</t>
+          <t>Paléoécologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La paléoécologie est une science issue de la paléontologie à partir des années 1960. Elle étudie les relations des êtres vivants fossiles avec leur milieu de vie, sous les aspects physico-chimiques (paléobiotope) aussi bien que biologiques (paléobiocénose). Elle étudie les paléoenvironnements qu'on cherche à reconstituer grâce aux fossiles et aux modèles contemporains. On parle aussi d'écologie rétrospective.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pal%C3%A9o%C3%A9cologie</t>
+          <t>Paléoécologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses méthodes sont diverses et reliées à l'écologie et aux autres sciences géologiques : paléontologie, palichnologie, palynologie, sédimentologie, géochimie, etc.
 Basée sur le principe de l'uniformitarisme, cette science trouve ses limites dans l'application des méthodes de l'écologie aux espèces fossiles.
